--- a/Leetcode Hard Level Algorithms.xlsx
+++ b/Leetcode Hard Level Algorithms.xlsx
@@ -33,9 +33,6 @@
     <t>Keywords</t>
   </si>
   <si>
-    <t>Column1</t>
-  </si>
-  <si>
     <t>Median of Two Sorted Arrays  </t>
   </si>
   <si>
@@ -73,6 +70,9 @@
   </si>
   <si>
     <t>N-Queens II </t>
+  </si>
+  <si>
+    <t>Misc</t>
   </si>
 </sst>
 </file>
@@ -80,7 +80,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -249,7 +249,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -264,24 +264,6 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
         <right/>
         <top style="thin">
           <color indexed="64"/>
@@ -413,6 +395,22 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border>
         <bottom style="thin">
           <color indexed="64"/>
@@ -427,12 +425,14 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
   </dxfs>
@@ -446,15 +446,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="E7:J28" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="E7:J28" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
   <autoFilter ref="E7:J28"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Leetcode No" dataDxfId="6"/>
-    <tableColumn id="2" name="Problem name" dataDxfId="5"/>
-    <tableColumn id="3" name="Category" dataDxfId="4"/>
-    <tableColumn id="4" name="Tips" dataDxfId="3"/>
-    <tableColumn id="5" name="Keywords" dataDxfId="2"/>
-    <tableColumn id="6" name="Column1" dataDxfId="1"/>
+    <tableColumn id="1" name="Leetcode No" dataDxfId="5"/>
+    <tableColumn id="2" name="Problem name" dataDxfId="4"/>
+    <tableColumn id="3" name="Category" dataDxfId="3"/>
+    <tableColumn id="4" name="Tips" dataDxfId="2"/>
+    <tableColumn id="5" name="Keywords" dataDxfId="1"/>
+    <tableColumn id="6" name="Misc" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -747,10 +747,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="E3:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -766,7 +769,7 @@
     <row r="3" spans="5:10" x14ac:dyDescent="0.25">
       <c r="J3" s="11">
         <f ca="1">NOW()</f>
-        <v>43280.603513310183</v>
+        <v>43280.606674652779</v>
       </c>
     </row>
     <row r="7" spans="5:10" x14ac:dyDescent="0.25">
@@ -786,7 +789,7 @@
         <v>4</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="5:10" x14ac:dyDescent="0.25">
@@ -794,7 +797,7 @@
         <v>4</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -806,7 +809,7 @@
         <v>10</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
@@ -818,7 +821,7 @@
         <v>23</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
@@ -830,7 +833,7 @@
         <v>25</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
@@ -842,7 +845,7 @@
         <v>30</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
@@ -854,7 +857,7 @@
         <v>32</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -866,7 +869,7 @@
         <v>37</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
@@ -878,7 +881,7 @@
         <v>41</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
@@ -890,7 +893,7 @@
         <v>42</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
@@ -902,7 +905,7 @@
         <v>44</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
@@ -914,7 +917,7 @@
         <v>45</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
@@ -926,7 +929,7 @@
         <v>51</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
@@ -938,7 +941,7 @@
         <v>52</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
@@ -1026,7 +1029,7 @@
     <hyperlink ref="F20" r:id="rId13" display="https://leetcode.com/problems/n-queens-ii"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId14"/>
+  <pageSetup scale="52" fitToHeight="0" orientation="portrait" r:id="rId14"/>
   <tableParts count="1">
     <tablePart r:id="rId15"/>
   </tableParts>

--- a/Leetcode Hard Level Algorithms.xlsx
+++ b/Leetcode Hard Level Algorithms.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Leetcode hardlevel questions" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="By Categories" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>Leetcode No</t>
   </si>
@@ -73,6 +73,171 @@
   </si>
   <si>
     <t>Misc</t>
+  </si>
+  <si>
+    <t>Insert Interval </t>
+  </si>
+  <si>
+    <t>Valid Number  </t>
+  </si>
+  <si>
+    <t>Text Justification </t>
+  </si>
+  <si>
+    <t>Edit Distance </t>
+  </si>
+  <si>
+    <t>Minimum Window Substring </t>
+  </si>
+  <si>
+    <t>Largest Rectangle in Histogram</t>
+  </si>
+  <si>
+    <t>Maximal Rectangle</t>
+  </si>
+  <si>
+    <t>Scramble String</t>
+  </si>
+  <si>
+    <t>Interleaving String </t>
+  </si>
+  <si>
+    <t>Recover Binary Search Tree </t>
+  </si>
+  <si>
+    <t>Distinct Subsequences</t>
+  </si>
+  <si>
+    <t>Best Time to Buy and Sell Stock III</t>
+  </si>
+  <si>
+    <t>Binary Tree Maximum Path Sum</t>
+  </si>
+  <si>
+    <t>Word Ladder II</t>
+  </si>
+  <si>
+    <t>Longest Consecutive Sequence</t>
+  </si>
+  <si>
+    <t>Palindrome Partitioning II </t>
+  </si>
+  <si>
+    <t>Candy  </t>
+  </si>
+  <si>
+    <t>Word Break II  </t>
+  </si>
+  <si>
+    <t>Binary Tree Postorder Traversal</t>
+  </si>
+  <si>
+    <t>LRU Cache</t>
+  </si>
+  <si>
+    <t>Max Points on a Line </t>
+  </si>
+  <si>
+    <t>Find Minimum in Rotated Sorted Array II</t>
+  </si>
+  <si>
+    <t>Read N Characters Given Read4 II - Call multiple times</t>
+  </si>
+  <si>
+    <t>Longest Substring with At Most Two Distinct Characters</t>
+  </si>
+  <si>
+    <t>Maximum Gap</t>
+  </si>
+  <si>
+    <t>Dungeon Game</t>
+  </si>
+  <si>
+    <t>Department Top Three Salaries </t>
+  </si>
+  <si>
+    <t>Best Time to Buy and Sell Stock IV  </t>
+  </si>
+  <si>
+    <t>Word Search II </t>
+  </si>
+  <si>
+    <t>Shortest Palindrome</t>
+  </si>
+  <si>
+    <t>The Skyline Problem </t>
+  </si>
+  <si>
+    <t>Basic Calculator </t>
+  </si>
+  <si>
+    <t>Number of Digit One </t>
+  </si>
+  <si>
+    <t>Sliding Window Maximum </t>
+  </si>
+  <si>
+    <t>Strobogrammatic Number III</t>
+  </si>
+  <si>
+    <t>Trips and Users</t>
+  </si>
+  <si>
+    <t>Paint House II</t>
+  </si>
+  <si>
+    <t>Alien Dictionary</t>
+  </si>
+  <si>
+    <t>Closest Binary Search Tree Value II</t>
+  </si>
+  <si>
+    <t>Integer to English Words</t>
+  </si>
+  <si>
+    <t>Expression Add Operators</t>
+  </si>
+  <si>
+    <t>Word Pattern II </t>
+  </si>
+  <si>
+    <t>Find Median from Data Stream </t>
+  </si>
+  <si>
+    <t>Best Meeting Point</t>
+  </si>
+  <si>
+    <t>Serialize and Deserialize Binary Tree</t>
+  </si>
+  <si>
+    <t>Remove Invalid Parentheses </t>
+  </si>
+  <si>
+    <t>Smallest Rectangle Enclosing Black Pixels</t>
+  </si>
+  <si>
+    <t>Number of Islands II </t>
+  </si>
+  <si>
+    <t>Range Sum Query 2D - Mutable</t>
+  </si>
+  <si>
+    <t>Burst Balloons</t>
+  </si>
+  <si>
+    <t>Count of Smaller Numbers After Self</t>
+  </si>
+  <si>
+    <t>Remove Duplicate Letters </t>
+  </si>
+  <si>
+    <t>Shortest Distance from All Buildings</t>
+  </si>
+  <si>
+    <t>Create Maximum Number </t>
+  </si>
+  <si>
+    <t>Count of Range Sum </t>
   </si>
 </sst>
 </file>
@@ -108,7 +273,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFAFAFA"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -237,30 +402,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="11">
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -271,12 +453,128 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -290,128 +588,6 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -446,15 +622,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="E7:J28" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="E7:J28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B7:G75" totalsRowShown="0" headerRowDxfId="10" dataDxfId="0" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
+  <autoFilter ref="B7:G75"/>
+  <sortState ref="B8:G57">
+    <sortCondition ref="B7:B57"/>
+  </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" name="Leetcode No" dataDxfId="5"/>
-    <tableColumn id="2" name="Problem name" dataDxfId="4"/>
-    <tableColumn id="3" name="Category" dataDxfId="3"/>
-    <tableColumn id="4" name="Tips" dataDxfId="2"/>
-    <tableColumn id="5" name="Keywords" dataDxfId="1"/>
-    <tableColumn id="6" name="Misc" dataDxfId="0"/>
+    <tableColumn id="1" name="Leetcode No" dataDxfId="6"/>
+    <tableColumn id="2" name="Problem name" dataDxfId="5"/>
+    <tableColumn id="3" name="Category" dataDxfId="4"/>
+    <tableColumn id="4" name="Tips" dataDxfId="3"/>
+    <tableColumn id="5" name="Keywords" dataDxfId="2"/>
+    <tableColumn id="6" name="Misc" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -750,288 +929,939 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="E3:J28"/>
+  <dimension ref="B3:G75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="B59" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
-    <col min="6" max="6" width="38.42578125" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" customWidth="1"/>
-    <col min="10" max="10" width="29.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="46.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="29.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="J3" s="11">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G3" s="4">
         <f ca="1">NOW()</f>
-        <v>43280.606674652779</v>
-      </c>
-    </row>
-    <row r="7" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E7" s="1" t="s">
+        <v>43280.626090625003</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="F7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E8" s="4">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="5">
         <v>4</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="C8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="6"/>
-    </row>
-    <row r="9" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E9" s="4">
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="8">
         <v>10</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="C9" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="6"/>
-    </row>
-    <row r="10" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E10" s="4">
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="6">
         <v>23</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="C10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="6"/>
-    </row>
-    <row r="11" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E11" s="4">
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="6">
         <v>25</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="C11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="6"/>
-    </row>
-    <row r="12" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E12" s="4">
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="6">
         <v>30</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="C12" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="6"/>
-    </row>
-    <row r="13" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E13" s="4">
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="6">
         <v>32</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="C13" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="6"/>
-    </row>
-    <row r="14" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E14" s="4">
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="6">
         <v>37</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="C14" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="6"/>
-    </row>
-    <row r="15" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E15" s="4">
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="6">
         <v>41</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="C15" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="6"/>
-    </row>
-    <row r="16" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E16" s="4">
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="6">
         <v>42</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="C16" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="6"/>
-    </row>
-    <row r="17" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E17" s="4">
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="6">
         <v>44</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="C17" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="6"/>
-    </row>
-    <row r="18" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E18" s="4">
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="6">
         <v>45</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="C18" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="6"/>
-    </row>
-    <row r="19" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E19" s="4">
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="6">
         <v>51</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="C19" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="6"/>
-    </row>
-    <row r="20" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E20" s="4">
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="6">
         <v>52</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="C20" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="6"/>
-    </row>
-    <row r="21" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E21" s="4"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="6"/>
-    </row>
-    <row r="22" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E22" s="4"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="6"/>
-    </row>
-    <row r="23" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E23" s="4"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="6"/>
-    </row>
-    <row r="24" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E24" s="4"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="6"/>
-    </row>
-    <row r="25" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E25" s="4"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="6"/>
-    </row>
-    <row r="26" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E26" s="4"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="6"/>
-    </row>
-    <row r="27" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E27" s="4"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="6"/>
-    </row>
-    <row r="28" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E28" s="7"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="9"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="6">
+        <v>57</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="6">
+        <v>65</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="6">
+        <v>68</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="6">
+        <v>72</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="6">
+        <v>76</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="6">
+        <v>84</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="6">
+        <v>85</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="6">
+        <v>87</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="8">
+        <v>97</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="10"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="8">
+        <v>99</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="10"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="8">
+        <v>115</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="10"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="8">
+        <v>123</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="10"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="8">
+        <v>124</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="10"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="8">
+        <v>125</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="10"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="8">
+        <v>128</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="10"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="8">
+        <v>132</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="10"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="8">
+        <v>135</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="10"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="8">
+        <v>140</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="10"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="8">
+        <v>145</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="10"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="8">
+        <v>146</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="10"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="8">
+        <v>149</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="10"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="8">
+        <v>154</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="10"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="8">
+        <v>158</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="10"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="8">
+        <v>159</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="10"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="8">
+        <v>164</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="10"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46" s="8">
+        <v>174</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="10"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47" s="8">
+        <v>184</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="10"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="8">
+        <v>185</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="10"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="8">
+        <v>212</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="10"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="8">
+        <v>214</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="10"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" s="8">
+        <v>218</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="10"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52" s="8">
+        <v>224</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="10"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53" s="8">
+        <v>233</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="10"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B54" s="8">
+        <v>239</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="10"/>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B55" s="8">
+        <v>248</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="10"/>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B56" s="8">
+        <v>262</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="10"/>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B57" s="8">
+        <v>265</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="10"/>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B58" s="8">
+        <v>269</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="10"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="8">
+        <v>272</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="10"/>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B60" s="8">
+        <v>273</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="10"/>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B61" s="8">
+        <v>282</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="10"/>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B62" s="8">
+        <v>291</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="10"/>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B63" s="8">
+        <v>295</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="10"/>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B64" s="8">
+        <v>296</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="10"/>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B65" s="8">
+        <v>297</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="10"/>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B66" s="8">
+        <v>301</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="10"/>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B67" s="8">
+        <v>303</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="10"/>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B68" s="8">
+        <v>305</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="10"/>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B69" s="8">
+        <v>308</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="10"/>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B70" s="8">
+        <v>312</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="10"/>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B71" s="8">
+        <v>315</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="10"/>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B72" s="8">
+        <v>316</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="10"/>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B73" s="8">
+        <v>317</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="10"/>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B74" s="8">
+        <v>321</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="10"/>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B75" s="8">
+        <v>327</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F8" r:id="rId1" display="https://leetcode.com/problems/median-of-two-sorted-arrays"/>
-    <hyperlink ref="F9" r:id="rId2" display="https://leetcode.com/problems/regular-expression-matching"/>
-    <hyperlink ref="F10" r:id="rId3" display="https://leetcode.com/problems/merge-k-sorted-lists"/>
-    <hyperlink ref="F11" r:id="rId4" display="https://leetcode.com/problems/reverse-nodes-in-k-group"/>
-    <hyperlink ref="F12" r:id="rId5" display="https://leetcode.com/problems/substring-with-concatenation-of-all-words"/>
-    <hyperlink ref="F13" r:id="rId6" display="https://leetcode.com/problems/longest-valid-parentheses"/>
-    <hyperlink ref="F14" r:id="rId7" display="https://leetcode.com/problems/sudoku-solver"/>
-    <hyperlink ref="F15" r:id="rId8" display="https://leetcode.com/problems/first-missing-positive"/>
-    <hyperlink ref="F16" r:id="rId9" display="https://leetcode.com/problems/trapping-rain-water"/>
-    <hyperlink ref="F17" r:id="rId10" display="https://leetcode.com/problems/wildcard-matching"/>
-    <hyperlink ref="F18" r:id="rId11" display="https://leetcode.com/problems/jump-game-ii"/>
-    <hyperlink ref="F19" r:id="rId12" display="https://leetcode.com/problems/n-queens"/>
-    <hyperlink ref="F20" r:id="rId13" display="https://leetcode.com/problems/n-queens-ii"/>
+    <hyperlink ref="C8" r:id="rId1" display="https://leetcode.com/problems/median-of-two-sorted-arrays"/>
+    <hyperlink ref="C9" r:id="rId2" display="https://leetcode.com/problems/regular-expression-matching"/>
+    <hyperlink ref="C10" r:id="rId3" display="https://leetcode.com/problems/merge-k-sorted-lists"/>
+    <hyperlink ref="C11" r:id="rId4" display="https://leetcode.com/problems/reverse-nodes-in-k-group"/>
+    <hyperlink ref="C12" r:id="rId5" display="https://leetcode.com/problems/substring-with-concatenation-of-all-words"/>
+    <hyperlink ref="C13" r:id="rId6" display="https://leetcode.com/problems/longest-valid-parentheses"/>
+    <hyperlink ref="C14" r:id="rId7" display="https://leetcode.com/problems/sudoku-solver"/>
+    <hyperlink ref="C15" r:id="rId8" display="https://leetcode.com/problems/first-missing-positive"/>
+    <hyperlink ref="C16" r:id="rId9" display="https://leetcode.com/problems/trapping-rain-water"/>
+    <hyperlink ref="C17" r:id="rId10" display="https://leetcode.com/problems/wildcard-matching"/>
+    <hyperlink ref="C18" r:id="rId11" display="https://leetcode.com/problems/jump-game-ii"/>
+    <hyperlink ref="C19" r:id="rId12" display="https://leetcode.com/problems/n-queens"/>
+    <hyperlink ref="C20" r:id="rId13" display="https://leetcode.com/problems/n-queens-ii"/>
+    <hyperlink ref="C21" r:id="rId14" display="https://leetcode.com/problems/insert-interval"/>
+    <hyperlink ref="C22" r:id="rId15" display="https://leetcode.com/problems/valid-number"/>
+    <hyperlink ref="C23" r:id="rId16" display="https://leetcode.com/problems/text-justification"/>
+    <hyperlink ref="C24" r:id="rId17" display="https://leetcode.com/problems/edit-distance"/>
+    <hyperlink ref="C25" r:id="rId18" display="https://leetcode.com/problems/minimum-window-substring"/>
+    <hyperlink ref="C26" r:id="rId19" display="https://leetcode.com/problems/largest-rectangle-in-histogram"/>
+    <hyperlink ref="C27" r:id="rId20" display="https://leetcode.com/problems/maximal-rectangle"/>
+    <hyperlink ref="C28" r:id="rId21" display="https://leetcode.com/problems/scramble-string"/>
+    <hyperlink ref="C29" r:id="rId22" display="https://leetcode.com/problems/interleaving-string"/>
+    <hyperlink ref="C30" r:id="rId23" display="https://leetcode.com/problems/recover-binary-search-tree"/>
+    <hyperlink ref="C31" r:id="rId24" display="https://leetcode.com/problems/distinct-subsequences"/>
+    <hyperlink ref="C32" r:id="rId25" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock-iii"/>
+    <hyperlink ref="C33" r:id="rId26" display="https://leetcode.com/problems/binary-tree-maximum-path-sum"/>
+    <hyperlink ref="C34" r:id="rId27" display="https://leetcode.com/problems/word-ladder-ii"/>
+    <hyperlink ref="C35" r:id="rId28" display="https://leetcode.com/problems/longest-consecutive-sequence"/>
+    <hyperlink ref="C36" r:id="rId29" display="https://leetcode.com/problems/palindrome-partitioning-ii"/>
+    <hyperlink ref="C37" r:id="rId30" display="https://leetcode.com/problems/candy"/>
+    <hyperlink ref="C38" r:id="rId31" display="https://leetcode.com/problems/word-break-ii"/>
+    <hyperlink ref="C39" r:id="rId32" display="https://leetcode.com/problems/binary-tree-postorder-traversal"/>
+    <hyperlink ref="C40" r:id="rId33" display="https://leetcode.com/problems/lru-cache"/>
+    <hyperlink ref="C41" r:id="rId34" display="https://leetcode.com/problems/max-points-on-a-line"/>
+    <hyperlink ref="C42" r:id="rId35" display="https://leetcode.com/problems/find-minimum-in-rotated-sorted-array-ii"/>
+    <hyperlink ref="C43" r:id="rId36" display="https://leetcode.com/problems/read-n-characters-given-read4-ii-call-multiple-times"/>
+    <hyperlink ref="C44" r:id="rId37" display="https://leetcode.com/problems/longest-substring-with-at-most-two-distinct-characters"/>
+    <hyperlink ref="C45" r:id="rId38" display="https://leetcode.com/problems/maximum-gap"/>
+    <hyperlink ref="C46" r:id="rId39" display="https://leetcode.com/problems/dungeon-game"/>
+    <hyperlink ref="C48" r:id="rId40" display="https://leetcode.com/problems/department-top-three-salaries"/>
+    <hyperlink ref="C47" r:id="rId41" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock-iv"/>
+    <hyperlink ref="C49" r:id="rId42" display="https://leetcode.com/problems/word-search-ii"/>
+    <hyperlink ref="C50" r:id="rId43" display="https://leetcode.com/problems/shortest-palindrome"/>
+    <hyperlink ref="C51" r:id="rId44" display="https://leetcode.com/problems/the-skyline-problem"/>
+    <hyperlink ref="C52" r:id="rId45" display="https://leetcode.com/problems/basic-calculator"/>
+    <hyperlink ref="C53" r:id="rId46" display="https://leetcode.com/problems/number-of-digit-one"/>
+    <hyperlink ref="C54" r:id="rId47" display="https://leetcode.com/problems/sliding-window-maximum"/>
+    <hyperlink ref="C55" r:id="rId48" display="https://leetcode.com/problems/strobogrammatic-number-iii"/>
+    <hyperlink ref="C56" r:id="rId49" display="https://leetcode.com/problems/trips-and-users"/>
+    <hyperlink ref="C57" r:id="rId50" display="https://leetcode.com/problems/paint-house-ii"/>
+    <hyperlink ref="C58" r:id="rId51" display="https://leetcode.com/problems/alien-dictionary"/>
+    <hyperlink ref="C59" r:id="rId52" display="https://leetcode.com/problems/closest-binary-search-tree-value-ii"/>
+    <hyperlink ref="C60" r:id="rId53" display="https://leetcode.com/problems/integer-to-english-words"/>
+    <hyperlink ref="C61" r:id="rId54" display="https://leetcode.com/problems/expression-add-operators"/>
+    <hyperlink ref="C62" r:id="rId55" display="https://leetcode.com/problems/word-pattern-ii"/>
+    <hyperlink ref="C63" r:id="rId56" display="https://leetcode.com/problems/find-median-from-data-stream"/>
+    <hyperlink ref="C64" r:id="rId57" display="https://leetcode.com/problems/best-meeting-point"/>
+    <hyperlink ref="C65" r:id="rId58" display="https://leetcode.com/problems/serialize-and-deserialize-binary-tree"/>
+    <hyperlink ref="C66" r:id="rId59" display="https://leetcode.com/problems/remove-invalid-parentheses"/>
+    <hyperlink ref="C67" r:id="rId60" display="https://leetcode.com/problems/smallest-rectangle-enclosing-black-pixels"/>
+    <hyperlink ref="C68" r:id="rId61" display="https://leetcode.com/problems/number-of-islands-ii"/>
+    <hyperlink ref="C69" r:id="rId62" display="https://leetcode.com/problems/range-sum-query-2d-mutable"/>
+    <hyperlink ref="C70" r:id="rId63" display="https://leetcode.com/problems/burst-balloons"/>
+    <hyperlink ref="C71" r:id="rId64" display="https://leetcode.com/problems/count-of-smaller-numbers-after-self"/>
+    <hyperlink ref="C72" r:id="rId65" display="https://leetcode.com/problems/remove-duplicate-letters"/>
+    <hyperlink ref="C73" r:id="rId66" display="https://leetcode.com/problems/shortest-distance-from-all-buildings"/>
+    <hyperlink ref="C74" r:id="rId67" display="https://leetcode.com/problems/create-maximum-number"/>
+    <hyperlink ref="C75" r:id="rId68" display="https://leetcode.com/problems/count-of-range-sum"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="52" fitToHeight="0" orientation="portrait" r:id="rId14"/>
+  <pageSetup scale="79" fitToHeight="0" orientation="landscape" r:id="rId69"/>
   <tableParts count="1">
-    <tablePart r:id="rId15"/>
+    <tablePart r:id="rId70"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Leetcode Hard Level Algorithms.xlsx
+++ b/Leetcode Hard Level Algorithms.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="90" windowWidth="27795" windowHeight="12330"/>
@@ -11,7 +11,7 @@
     <sheet name="By Categories" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -243,11 +243,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -434,14 +434,6 @@
           <bgColor theme="0"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -571,23 +563,31 @@
       </border>
     </dxf>
     <dxf>
-      <border>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -622,18 +622,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B7:G75" totalsRowShown="0" headerRowDxfId="10" dataDxfId="0" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B7:G75" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
   <autoFilter ref="B7:G75"/>
-  <sortState ref="B8:G57">
-    <sortCondition ref="B7:B57"/>
+  <sortState ref="B8:G75">
+    <sortCondition ref="B7:B75"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" name="Leetcode No" dataDxfId="6"/>
-    <tableColumn id="2" name="Problem name" dataDxfId="5"/>
-    <tableColumn id="3" name="Category" dataDxfId="4"/>
-    <tableColumn id="4" name="Tips" dataDxfId="3"/>
-    <tableColumn id="5" name="Keywords" dataDxfId="2"/>
-    <tableColumn id="6" name="Misc" dataDxfId="1"/>
+    <tableColumn id="1" name="Leetcode No" dataDxfId="5"/>
+    <tableColumn id="2" name="Problem name" dataDxfId="4"/>
+    <tableColumn id="3" name="Category" dataDxfId="3"/>
+    <tableColumn id="4" name="Tips" dataDxfId="2"/>
+    <tableColumn id="5" name="Keywords" dataDxfId="1"/>
+    <tableColumn id="6" name="Misc" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -714,7 +714,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -749,7 +748,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -925,17 +923,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B3:G75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B59" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B64" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="17.5703125" customWidth="1"/>
     <col min="3" max="3" width="46.85546875" customWidth="1"/>
@@ -945,13 +943,13 @@
     <col min="7" max="7" width="29.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7">
       <c r="G3" s="4">
         <f ca="1">NOW()</f>
-        <v>43280.626090625003</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+        <v>43281.798299652779</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
       <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
@@ -971,7 +969,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7">
       <c r="B8" s="5">
         <v>4</v>
       </c>
@@ -983,7 +981,7 @@
       <c r="F8" s="6"/>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7">
       <c r="B9" s="8">
         <v>10</v>
       </c>
@@ -995,7 +993,7 @@
       <c r="F9" s="9"/>
       <c r="G9" s="10"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7">
       <c r="B10" s="6">
         <v>23</v>
       </c>
@@ -1007,7 +1005,7 @@
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7">
       <c r="B11" s="6">
         <v>25</v>
       </c>
@@ -1019,7 +1017,7 @@
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7">
       <c r="B12" s="6">
         <v>30</v>
       </c>
@@ -1031,7 +1029,7 @@
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7">
       <c r="B13" s="6">
         <v>32</v>
       </c>
@@ -1043,7 +1041,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7">
       <c r="B14" s="6">
         <v>37</v>
       </c>
@@ -1055,7 +1053,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7">
       <c r="B15" s="6">
         <v>41</v>
       </c>
@@ -1067,7 +1065,7 @@
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7">
       <c r="B16" s="6">
         <v>42</v>
       </c>
@@ -1079,7 +1077,7 @@
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7">
       <c r="B17" s="6">
         <v>44</v>
       </c>
@@ -1091,7 +1089,7 @@
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7">
       <c r="B18" s="6">
         <v>45</v>
       </c>
@@ -1103,7 +1101,7 @@
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7">
       <c r="B19" s="6">
         <v>51</v>
       </c>
@@ -1115,7 +1113,7 @@
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7">
       <c r="B20" s="6">
         <v>52</v>
       </c>
@@ -1127,7 +1125,7 @@
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7">
       <c r="B21" s="6">
         <v>57</v>
       </c>
@@ -1139,7 +1137,7 @@
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7">
       <c r="B22" s="6">
         <v>65</v>
       </c>
@@ -1151,7 +1149,7 @@
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7">
       <c r="B23" s="6">
         <v>68</v>
       </c>
@@ -1163,7 +1161,7 @@
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7">
       <c r="B24" s="6">
         <v>72</v>
       </c>
@@ -1175,7 +1173,7 @@
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7">
       <c r="B25" s="6">
         <v>76</v>
       </c>
@@ -1187,7 +1185,7 @@
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7">
       <c r="B26" s="6">
         <v>84</v>
       </c>
@@ -1199,7 +1197,7 @@
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7">
       <c r="B27" s="6">
         <v>85</v>
       </c>
@@ -1211,7 +1209,7 @@
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7">
       <c r="B28" s="6">
         <v>87</v>
       </c>
@@ -1223,7 +1221,7 @@
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7">
       <c r="B29" s="8">
         <v>97</v>
       </c>
@@ -1235,7 +1233,7 @@
       <c r="F29" s="9"/>
       <c r="G29" s="10"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7">
       <c r="B30" s="8">
         <v>99</v>
       </c>
@@ -1247,7 +1245,7 @@
       <c r="F30" s="9"/>
       <c r="G30" s="10"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7">
       <c r="B31" s="8">
         <v>115</v>
       </c>
@@ -1259,7 +1257,7 @@
       <c r="F31" s="9"/>
       <c r="G31" s="10"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7">
       <c r="B32" s="8">
         <v>123</v>
       </c>
@@ -1271,7 +1269,7 @@
       <c r="F32" s="9"/>
       <c r="G32" s="10"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7">
       <c r="B33" s="8">
         <v>124</v>
       </c>
@@ -1283,7 +1281,7 @@
       <c r="F33" s="9"/>
       <c r="G33" s="10"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7">
       <c r="B34" s="8">
         <v>125</v>
       </c>
@@ -1295,7 +1293,7 @@
       <c r="F34" s="9"/>
       <c r="G34" s="10"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7">
       <c r="B35" s="8">
         <v>128</v>
       </c>
@@ -1307,7 +1305,7 @@
       <c r="F35" s="9"/>
       <c r="G35" s="10"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7">
       <c r="B36" s="8">
         <v>132</v>
       </c>
@@ -1319,7 +1317,7 @@
       <c r="F36" s="9"/>
       <c r="G36" s="10"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7">
       <c r="B37" s="8">
         <v>135</v>
       </c>
@@ -1331,7 +1329,7 @@
       <c r="F37" s="9"/>
       <c r="G37" s="10"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7">
       <c r="B38" s="8">
         <v>140</v>
       </c>
@@ -1343,7 +1341,7 @@
       <c r="F38" s="9"/>
       <c r="G38" s="10"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7">
       <c r="B39" s="8">
         <v>145</v>
       </c>
@@ -1355,7 +1353,7 @@
       <c r="F39" s="9"/>
       <c r="G39" s="10"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7">
       <c r="B40" s="8">
         <v>146</v>
       </c>
@@ -1367,7 +1365,7 @@
       <c r="F40" s="9"/>
       <c r="G40" s="10"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7">
       <c r="B41" s="8">
         <v>149</v>
       </c>
@@ -1379,7 +1377,7 @@
       <c r="F41" s="9"/>
       <c r="G41" s="10"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7">
       <c r="B42" s="8">
         <v>154</v>
       </c>
@@ -1391,7 +1389,7 @@
       <c r="F42" s="9"/>
       <c r="G42" s="10"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7">
       <c r="B43" s="8">
         <v>158</v>
       </c>
@@ -1403,7 +1401,7 @@
       <c r="F43" s="9"/>
       <c r="G43" s="10"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7">
       <c r="B44" s="8">
         <v>159</v>
       </c>
@@ -1415,7 +1413,7 @@
       <c r="F44" s="9"/>
       <c r="G44" s="10"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7">
       <c r="B45" s="8">
         <v>164</v>
       </c>
@@ -1427,7 +1425,7 @@
       <c r="F45" s="9"/>
       <c r="G45" s="10"/>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7">
       <c r="B46" s="8">
         <v>174</v>
       </c>
@@ -1439,7 +1437,7 @@
       <c r="F46" s="9"/>
       <c r="G46" s="10"/>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7">
       <c r="B47" s="8">
         <v>184</v>
       </c>
@@ -1451,7 +1449,7 @@
       <c r="F47" s="9"/>
       <c r="G47" s="10"/>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7">
       <c r="B48" s="8">
         <v>185</v>
       </c>
@@ -1463,7 +1461,7 @@
       <c r="F48" s="9"/>
       <c r="G48" s="10"/>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:7">
       <c r="B49" s="8">
         <v>212</v>
       </c>
@@ -1475,7 +1473,7 @@
       <c r="F49" s="9"/>
       <c r="G49" s="10"/>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:7">
       <c r="B50" s="8">
         <v>214</v>
       </c>
@@ -1487,7 +1485,7 @@
       <c r="F50" s="9"/>
       <c r="G50" s="10"/>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:7">
       <c r="B51" s="8">
         <v>218</v>
       </c>
@@ -1499,7 +1497,7 @@
       <c r="F51" s="9"/>
       <c r="G51" s="10"/>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:7">
       <c r="B52" s="8">
         <v>224</v>
       </c>
@@ -1511,7 +1509,7 @@
       <c r="F52" s="9"/>
       <c r="G52" s="10"/>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:7">
       <c r="B53" s="8">
         <v>233</v>
       </c>
@@ -1523,7 +1521,7 @@
       <c r="F53" s="9"/>
       <c r="G53" s="10"/>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:7">
       <c r="B54" s="8">
         <v>239</v>
       </c>
@@ -1535,7 +1533,7 @@
       <c r="F54" s="9"/>
       <c r="G54" s="10"/>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:7">
       <c r="B55" s="8">
         <v>248</v>
       </c>
@@ -1547,7 +1545,7 @@
       <c r="F55" s="9"/>
       <c r="G55" s="10"/>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:7">
       <c r="B56" s="8">
         <v>262</v>
       </c>
@@ -1559,7 +1557,7 @@
       <c r="F56" s="9"/>
       <c r="G56" s="10"/>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:7">
       <c r="B57" s="8">
         <v>265</v>
       </c>
@@ -1571,7 +1569,7 @@
       <c r="F57" s="9"/>
       <c r="G57" s="10"/>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:7">
       <c r="B58" s="8">
         <v>269</v>
       </c>
@@ -1583,7 +1581,7 @@
       <c r="F58" s="9"/>
       <c r="G58" s="10"/>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:7">
       <c r="B59" s="8">
         <v>272</v>
       </c>
@@ -1595,7 +1593,7 @@
       <c r="F59" s="9"/>
       <c r="G59" s="10"/>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:7">
       <c r="B60" s="8">
         <v>273</v>
       </c>
@@ -1607,7 +1605,7 @@
       <c r="F60" s="9"/>
       <c r="G60" s="10"/>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:7">
       <c r="B61" s="8">
         <v>282</v>
       </c>
@@ -1619,7 +1617,7 @@
       <c r="F61" s="9"/>
       <c r="G61" s="10"/>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:7">
       <c r="B62" s="8">
         <v>291</v>
       </c>
@@ -1631,7 +1629,7 @@
       <c r="F62" s="9"/>
       <c r="G62" s="10"/>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:7">
       <c r="B63" s="8">
         <v>295</v>
       </c>
@@ -1643,7 +1641,7 @@
       <c r="F63" s="9"/>
       <c r="G63" s="10"/>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:7">
       <c r="B64" s="8">
         <v>296</v>
       </c>
@@ -1655,7 +1653,7 @@
       <c r="F64" s="9"/>
       <c r="G64" s="10"/>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:7">
       <c r="B65" s="8">
         <v>297</v>
       </c>
@@ -1667,7 +1665,7 @@
       <c r="F65" s="9"/>
       <c r="G65" s="10"/>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:7">
       <c r="B66" s="8">
         <v>301</v>
       </c>
@@ -1679,7 +1677,7 @@
       <c r="F66" s="9"/>
       <c r="G66" s="10"/>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:7">
       <c r="B67" s="8">
         <v>303</v>
       </c>
@@ -1691,7 +1689,7 @@
       <c r="F67" s="9"/>
       <c r="G67" s="10"/>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:7">
       <c r="B68" s="8">
         <v>305</v>
       </c>
@@ -1703,7 +1701,7 @@
       <c r="F68" s="9"/>
       <c r="G68" s="10"/>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:7">
       <c r="B69" s="8">
         <v>308</v>
       </c>
@@ -1715,7 +1713,7 @@
       <c r="F69" s="9"/>
       <c r="G69" s="10"/>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:7">
       <c r="B70" s="8">
         <v>312</v>
       </c>
@@ -1727,7 +1725,7 @@
       <c r="F70" s="9"/>
       <c r="G70" s="10"/>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:7">
       <c r="B71" s="8">
         <v>315</v>
       </c>
@@ -1739,7 +1737,7 @@
       <c r="F71" s="9"/>
       <c r="G71" s="10"/>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:7">
       <c r="B72" s="8">
         <v>316</v>
       </c>
@@ -1751,7 +1749,7 @@
       <c r="F72" s="9"/>
       <c r="G72" s="10"/>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:7">
       <c r="B73" s="8">
         <v>317</v>
       </c>
@@ -1763,7 +1761,7 @@
       <c r="F73" s="9"/>
       <c r="G73" s="10"/>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:7">
       <c r="B74" s="8">
         <v>321</v>
       </c>
@@ -1775,7 +1773,7 @@
       <c r="F74" s="9"/>
       <c r="G74" s="10"/>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:7">
       <c r="B75" s="8">
         <v>327</v>
       </c>
@@ -1867,24 +1865,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
